--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\vendor\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74DC81-F5E1-474D-BFCD-26A652160964}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874225B5-2776-465A-BE03-2DA66ACBAEA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -335,6 +335,27 @@
   <si>
     <t>先ほどお送りしたファイルの解凍パスワードをご連絡いたします。\n\n${zip_password}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_notify_header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード通知(ヘッダー)</t>
+    <rPh sb="5" eb="7">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]パスワード通知(ヘッダー)</t>
+    <rPh sb="26" eb="28">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>***************************************************************************\n本メールは、添付ファイルの自動暗号化が行われています。\n後ほど送信者よりパスワードが送付されます。\n***************************************************************************\n\n</t>
   </si>
 </sst>
 </file>
@@ -701,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -937,6 +958,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\vendor\exceedone\exment\system_template\data\ja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\packages\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874225B5-2776-465A-BE03-2DA66ACBAEA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB14828-3DBB-4220-9763-A3B81555C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -356,6 +356,24 @@
   </si>
   <si>
     <t>***************************************************************************\n本メールは、添付ファイルの自動暗号化が行われています。\n後ほど送信者よりパスワードが送付されます。\n***************************************************************************\n\n</t>
+  </si>
+  <si>
+    <t>workflow_notify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークフロー${workflow_action}が実行されました</t>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークフロー実行</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -722,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -975,6 +993,20 @@
         <v>57</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\packages\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB14828-3DBB-4220-9763-A3B81555C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE3431-2F04-4765-B7B2-11501B0853BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -374,6 +374,9 @@
       <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${user:user_name}様\n\n${workflow:action_user}により、XXXが実行されました。\n実行内容をご確認の上、アクションを実行してください。\n\n対象データ：${value_url}\n実行ユーザー：${workflow:action_user}\n実行されたアクション：${workflow:action_name}\n現在のステータス：${workflow:status_name}\n\nコメント：\n${workflow:comment}\n\n</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1006,6 +1009,9 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\packages\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE3431-2F04-4765-B7B2-11501B0853BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B693DAE-9265-4E52-ADC9-EF38296747F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
@@ -362,13 +362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ワークフロー${workflow_action}が実行されました</t>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ワークフロー実行</t>
     <rPh sb="6" eb="8">
       <t>ジッコウ</t>
@@ -376,7 +369,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${user:user_name}様\n\n${workflow:action_user}により、XXXが実行されました。\n実行内容をご確認の上、アクションを実行してください。\n\n対象データ：${value_url}\n実行ユーザー：${workflow:action_user}\n実行されたアクション：${workflow:action_name}\n現在のステータス：${workflow:status_name}\n\nコメント：\n${workflow:comment}\n\n</t>
+    <t>${user:user_name}様\n\n${workflow:action_user}により、${workflow:action_name}が実行されました。\nデータと実行された内容をご確認の上、次のアクションを実行してください。\n\n対象データ：${value_url}\nデータ作成ユーザー：${created_user}\n実行されたアクション：${workflow:action_name}\nアクション実行ユーザー：${workflow:action_user}\n現在のステータス：${workflow:status_name}\n\nコメント：\n${workflow:comment}\n\n</t>
+    <rPh sb="101" eb="102">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]ワークフロー${workflow_action}が実行されました</t>
+    <rPh sb="46" eb="48">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -746,7 +753,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1001,16 +1008,16 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\packages\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B693DAE-9265-4E52-ADC9-EF38296747F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4B21C-2224-4F8F-BC9F-BFE0D7A1E09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
@@ -369,19 +369,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${user:user_name}様\n\n${workflow:action_user}により、${workflow:action_name}が実行されました。\nデータと実行された内容をご確認の上、次のアクションを実行してください。\n\n対象データ：${value_url}\nデータ作成ユーザー：${created_user}\n実行されたアクション：${workflow:action_name}\nアクション実行ユーザー：${workflow:action_user}\n現在のステータス：${workflow:status_name}\n\nコメント：\n${workflow:comment}\n\n</t>
-    <rPh sb="101" eb="102">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[${system:site_name}]ワークフロー${workflow_action}が実行されました</t>
     <rPh sb="46" eb="48">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${user:user_name}様\n\n${workflow:action_user}により、${workflow:action_name}が実行されました。\nデータと実行された内容をご確認の上、次のアクションを実行してください。\n\n対象データ：${value_url/link=true}\nデータ作成ユーザー：${created_user}\n実行されたアクション：${workflow:action_name}\nアクション実行ユーザー：${workflow:action_user}\n現在のステータス：${workflow:status_name}\n\nコメント：\n${workflow:comment}\n\n</t>
+    <rPh sb="101" eb="102">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -753,7 +753,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1014,10 +1014,10 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\packages\exceedone\exment\system_template\data\ja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4B21C-2224-4F8F-BC9F-BFE0D7A1E09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126281C1-A91A-4083-9039-FCD5ABCA22F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${system:site_name}に登録されているデータについて、システムにより設定された通知日になりました。ログイン後、内容をご確認ください。\n\n[登録内容]\n・通知名：${notify:notify_view_name}\n・対象テーブル：${target_table}\n・対象データ：${value_url}\n・${notify_target_column_key}：${notify_target_column_value}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>--------------\nこのメールはシステムによる自動送信メールです。\nこのメールに返信はできませんのでご了承ください。\n\n[${system:site_name}]\nURL  ${system:system_url/link=true}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,6 +379,10 @@
     <rPh sb="155" eb="157">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${system:site_name}に登録されているデータについて、システムにより設定された通知日になりました。ログイン後、内容をご確認ください。\n\n[登録内容]\n・通知名：${notify:notify_view_name}\n・対象テーブル：${target_table}\n・対象データ：${value_url/link=true}\n・${notify_target_column_key}：${notify_target_column_value}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -753,7 +753,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -835,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -875,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -895,7 +895,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -906,118 +906,118 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\ja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-sat\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126281C1-A91A-4083-9039-FCD5ABCA22F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E666BD-4F21-43AE-93E8-B175ACBE583B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -310,10 +319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー${updated_user}により、${target_table}のデータが${create_or_update}されました。\n以下の内容をご確認ください。\n\n${create_or_update}ユーザー:${target_user}\n${create_or_update}日時:${target_datetime}\n${create_or_update}データ:${value_url/link=true}\n${free_space}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password_notify</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,6 +388,10 @@
   </si>
   <si>
     <t>${system:site_name}に登録されているデータについて、システムにより設定された通知日になりました。ログイン後、内容をご確認ください。\n\n[登録内容]\n・通知名：${notify:notify_view_name}\n・対象テーブル：${target_table}\n・対象データ：${value_url/link=true}\n・${notify_target_column_key}：${notify_target_column_value}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー${target_user}により、${target_table}のデータが${create_or_update}されました。\n以下の内容をご確認ください。\n\n${create_or_update}ユーザー:${target_user}\n${create_or_update}日時:${target_datetime}\n${create_or_update}データ:${value_url/link=true}\n${free_space}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -753,12 +762,12 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -798,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -818,7 +827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -838,7 +847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -858,7 +867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -878,7 +887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -895,10 +904,10 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -915,10 +924,10 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -935,7 +944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -952,7 +961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -969,55 +978,55 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-sat\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E666BD-4F21-43AE-93E8-B175ACBE583B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0201BC-4A18-451A-93CC-7BD0DECF8040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -393,6 +393,33 @@
   <si>
     <t>ユーザー${target_user}により、${target_table}のデータが${create_or_update}されました。\n以下の内容をご確認ください。\n\n${create_or_update}ユーザー:${target_user}\n${create_or_update}日時:${target_datetime}\n${create_or_update}データ:${value_url/link=true}\n${free_space}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_admin_error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開フォーム 管理者エラー通知</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]公開フォーム ${publicform:public_form_view_name} でエラーが発生しました</t>
+    <rPh sb="21" eb="23">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${user:user_name}様\n\n公開フォーム ${publicform:public_form_view_name} の入力中に、エラーが発生しました。\n入力された内容と、エラー内容をご確認ください。\n\n■入力内容\n${form:values}\n\n■エラー概要\n${error:message}\n\n■エラー詳細\n${error:stacktrace}\n\n</t>
   </si>
 </sst>
 </file>
@@ -759,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1029,6 +1056,23 @@
         <v>59</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-sat\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0201BC-4A18-451A-93CC-7BD0DECF8040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1325D5EC-8AC5-4CF5-BCF0-5BB6048E34DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -395,20 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>publicform_admin_error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開フォーム 管理者エラー通知</t>
-    <rPh sb="0" eb="2">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[${system:site_name}]公開フォーム ${publicform:public_form_view_name} でエラーが発生しました</t>
     <rPh sb="21" eb="23">
       <t>コウカイ</t>
@@ -419,7 +405,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${user:user_name}様\n\n公開フォーム ${publicform:public_form_view_name} の入力中に、エラーが発生しました。\n入力された内容と、エラー内容をご確認ください。\n\n■入力内容\n${form:values}\n\n■エラー概要\n${error:message}\n\n■エラー詳細\n${error:stacktrace}\n\n</t>
+    <t>${user:user_name}様\n\n公開フォーム ${publicform:public_form_view_name} の入力中に、エラーが発生しました。\n入力された内容と、エラー内容をご確認ください。\n\n■入力内容\n${publicform:inputs}\n\n■エラー概要\n${error:message}\n\n■エラー詳細\n${error:stacktrace}\n\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_complete_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開フォーム 完了通知(一般ユーザー)</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]入力が完了しました</t>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この度は、ご入力いただきありがとうございます。\n入力が完了しました。入力内容をご確認ください。\n\n■入力内容\n${publicform:inputs}</t>
+    <rPh sb="2" eb="3">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="34">
+      <t>ニュウリョ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_complete_admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開フォーム 完了通知(管理者)</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[${system:site_name}]公開フォーム ${publicform:public_form_view_name} で入力が行われました</t>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${user:user_name}様\n\n公開フォーム ${publicform:public_form_view_name} の入力がありました。\n入力された内容をご確認ください。\n\n■入力内容\n${publicform:inputs}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開フォーム エラー通知(管理者)</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -786,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1058,19 +1130,53 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/system_template/data/ja/mail_template.xlsx
+++ b/system_template/data/ja/mail_template.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-sat\Dropbox\3_Develop\TFS_Exc\ExmentProject2\vendor\exceedone\exment\system_template\data\ja\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1325D5EC-8AC5-4CF5-BCF0-5BB6048E34DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6B672C1-A825-47CF-A377-E0B53872B948}"/>
+    <workbookView windowWidth="27945" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="mail_template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +77,9 @@
     <t>(メールフッター)</t>
   </si>
   <si>
+    <t>--------------\nこのメールはシステムによる自動送信メールです。\nこのメールに返信はできませんのでご了承ください。\n\n[${system:site_name}]\nURL  ${system:system_url/link=true}</t>
+  </si>
+  <si>
     <t>create_user</t>
   </si>
   <si>
@@ -96,6 +92,9 @@
     <t>[${system:site_name}]ユーザー新規登録</t>
   </si>
   <si>
+    <t>${user:user_name}様\nシステム管理者により、あなたのアカウントが新規追加されました。ユーザー情報をご確認ください。\n\nユーザーコード:${user:user_code}\nメールアドレス:${user:email}\nパスワード:${user:password}\n※セキュリティ向上の為、ログイン後、パスワードを変更することをおすすめします。\n\n${system:site_name}は、こちらからログインできます。\n${system:login_url/link=true}</t>
+  </si>
+  <si>
     <t>reset_password</t>
   </si>
   <si>
@@ -105,12 +104,18 @@
     <t>[${system:site_name}]パスワードリセット</t>
   </si>
   <si>
+    <t>パスワードリセットを行います。下記のURLより、パスワードを再登録してください。\n\n${system:password_reset_url}</t>
+  </si>
+  <si>
     <t>reset_password_admin</t>
   </si>
   <si>
     <t>パスワードリセット(管理者)</t>
   </si>
   <si>
+    <t>管理者により、パスワードリセットが行われました。ユーザー情報をご確認ください。\n\nユーザーコード:${user:user_code}\nメールアドレス:${user:email}\nパスワード:${user:password}\n※セキュリティ向上の為、ログイン後、パスワードを変更することをおすすめします。\n\n${system:site_name}は、こちらからログインできます。\n${system:login_url/link=true}</t>
+  </si>
+  <si>
     <t>time_notify</t>
   </si>
   <si>
@@ -120,410 +125,506 @@
     <t>[${system:site_name}]期限通知</t>
   </si>
   <si>
+    <t>${system:site_name}に登録されているデータについて、システムにより設定された通知日になりました。ログイン後、内容をご確認ください。\n\n[登録内容]\n・通知名：${notify:notify_view_name}\n・対象テーブル：${target_table}\n・対象データ：${value_url/link=true}\n・${notify_target_column_key}：${notify_target_column_value}</t>
+  </si>
+  <si>
     <t>data_saved_notify</t>
   </si>
   <si>
-    <t>パスワードリセットを行います。下記のURLより、パスワードを再登録してください。\n\n${system:password_reset_url}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>--------------\nこのメールはシステムによる自動送信メールです。\nこのメールに返信はできませんのでご了承ください。\n\n[${system:site_name}]\nURL  ${system:system_url/link=true}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${user:user_name}様\nシステム管理者により、あなたのアカウントが新規追加されました。ユーザー情報をご確認ください。\n\nユーザーコード:${user:user_code}\nメールアドレス:${user:email}\nパスワード:${user:password}\n※セキュリティ向上の為、ログイン後、パスワードを変更することをおすすめします。\n\n${system:site_name}は、こちらからログインできます。\n${system:login_url/link=true}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者により、パスワードリセットが行われました。ユーザー情報をご確認ください。\n\nユーザーコード:${user:user_code}\nメールアドレス:${user:email}\nパスワード:${user:password}\n※セキュリティ向上の為、ログイン後、パスワードを変更することをおすすめします。\n\n${system:site_name}は、こちらからログインできます。\n${system:login_url/link=true}</t>
-    <phoneticPr fontId="1"/>
+    <t>データ新規作成・更新・共有・コメント通知</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]データが${create_or_update}されました</t>
+  </si>
+  <si>
+    <t>ユーザー${target_user}により、${target_table}のデータが${create_or_update}されました。\n以下の内容をご確認ください。\n\n${create_or_update}ユーザー:${target_user}\n${create_or_update}日時:${target_datetime}\n${create_or_update}データ:${value_url/link=true}\n${free_space}</t>
   </si>
   <si>
     <t>verify_2factor</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2段階認証</t>
-    <rPh sb="1" eb="5">
-      <t>ダンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[${system:site_name}]2段階認証</t>
-    <rPh sb="22" eb="24">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID/パスワードでログインを行った方に送信しています。\n\n[認証コード]\n${verify_code}\n[有効期限]\n${valid_period_datetime}\n\n※ログインを行った覚えが無いのにも関わらず、本メールを受信した場合は、アカウントが不正に利用された可能性があります。パスワードの変更をお勧めします。\n※有効期限が切れた場合は、お手数ですが再度ID/パスワードを入力し、ログインを行ってください。</t>
   </si>
   <si>
     <t>verify_2factor_google</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Google2段階認証登録</t>
-    <rPh sb="7" eb="11">
-      <t>ダンカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[${system:site_name}]Google2段階認証登録</t>
-    <rPh sb="28" eb="30">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID/パスワードでログインを行った方に送信しています。\nGoogle2段階認証を登録します。\n\n[登録URL]\n${2factor_google_register_url}\n[有効期限]\n${valid_period_datetime}\n\n※ログインを行った覚えが無いのにも関わらず、本メールを受信した場合は、アカウントが不正に利用された可能性があります。パスワードの変更をお勧めします。\n※有効期限が切れた場合は、お手数ですが再度ID/パスワードを入力し、ログインを行ってください。</t>
   </si>
   <si>
     <t>verify_2factor_system</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2段階認証_システム疎通確認</t>
-    <rPh sb="1" eb="5">
-      <t>ダンカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソツウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[${system:site_name}]2段階認証_システム疎通確認</t>
-    <rPh sb="22" eb="24">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ソツウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID/パスワードでログインを行った方に送信しています。\nGoogle2段階認証を登録します。\n\n[登録URL]\n${2factor_google_register_url}\n[有効期限]\n${valid_period_datetime}\n\n※ログインを行った覚えが無いのにも関わらず、本メールを受信した場合は、アカウントが不正に利用された可能性があります。パスワードの変更をお勧めします。\n※有効期限が切れた場合は、お手数ですが再度ID/パスワードを入力し、ログインを行ってください。</t>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID/パスワードでログインを行った方に送信しています。\n\n[認証コード]\n${verify_code}\n[有効期限]\n${valid_period_datetime}\n\n※ログインを行った覚えが無いのにも関わらず、本メールを受信した場合は、アカウントが不正に利用された可能性があります。パスワードの変更をお勧めします。\n※有効期限が切れた場合は、お手数ですが再度ID/パスワードを入力し、ログインを行ってください。</t>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>システム全体で2段階認証を開始するための、認証コードを送信します。\n\n[認証コード]\n${verify_code}\n[有効期限]\n${valid_period_datetime}\n\nシステム設定画面で入力を行ってください。</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="21" eb="26">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="38" eb="43">
-      <t>ニンショ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="102" eb="106">
-      <t>セッテイガメン</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[${system:site_name}]データが${create_or_update}されました</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ新規作成・更新・共有・コメント通知</t>
-    <rPh sb="11" eb="13">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>password_notify</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードのお知らせ</t>
   </si>
   <si>
     <t>[${system:site_name}]パスワードのお知らせ</t>
-    <rPh sb="28" eb="29">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードのお知らせ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>先ほどお送りしたファイルの解凍パスワードをご連絡いたします。\n\n${zip_password}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>password_notify_header</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワード通知(ヘッダー)</t>
-    <rPh sb="5" eb="7">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[${system:site_name}]パスワード通知(ヘッダー)</t>
-    <rPh sb="26" eb="28">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>***************************************************************************\n本メールは、添付ファイルの自動暗号化が行われています。\n後ほど送信者よりパスワードが送付されます。\n***************************************************************************\n\n</t>
   </si>
   <si>
     <t>workflow_notify</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ワークフロー実行</t>
-    <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[${system:site_name}]ワークフロー${workflow_action}が実行されました</t>
-    <rPh sb="46" eb="48">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${user:user_name}様\n\n${workflow:action_user}により、${workflow:action_name}が実行されました。\nデータと実行された内容をご確認の上、次のアクションを実行してください。\n\n対象データ：${value_url/link=true}\nデータ作成ユーザー：${created_user}\n実行されたアクション：${workflow:action_name}\nアクション実行ユーザー：${workflow:action_user}\n現在のステータス：${workflow:status_name}\n\nコメント：\n${workflow:comment}\n\n</t>
-    <rPh sb="101" eb="102">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${system:site_name}に登録されているデータについて、システムにより設定された通知日になりました。ログイン後、内容をご確認ください。\n\n[登録内容]\n・通知名：${notify:notify_view_name}\n・対象テーブル：${target_table}\n・対象データ：${value_url/link=true}\n・${notify_target_column_key}：${notify_target_column_value}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー${target_user}により、${target_table}のデータが${create_or_update}されました。\n以下の内容をご確認ください。\n\n${create_or_update}ユーザー:${target_user}\n${create_or_update}日時:${target_datetime}\n${create_or_update}データ:${value_url/link=true}\n${free_space}</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicform_complete_user</t>
+  </si>
+  <si>
+    <t>公開フォーム 完了通知(一般ユーザー)</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]入力が完了しました</t>
+  </si>
+  <si>
+    <t>この度は、ご入力いただきありがとうございます。\n入力が完了しました。入力内容をご確認ください。\n\n■入力内容\n${publicform:inputs}</t>
+  </si>
+  <si>
+    <t>publicform_complete_admin</t>
+  </si>
+  <si>
+    <t>公開フォーム 完了通知(管理者)</t>
+  </si>
+  <si>
+    <t>[${system:site_name}]公開フォーム ${publicform:public_form_view_name} で入力が行われました</t>
+  </si>
+  <si>
+    <t>${user:user_name}様\n\n公開フォーム ${publicform:public_form_view_name} の入力がありました。\n入力された内容をご確認ください。\n\n■入力内容\n${publicform:inputs}</t>
+  </si>
+  <si>
+    <t>publicform_error</t>
+  </si>
+  <si>
+    <t>公開フォーム エラー通知(管理者)</t>
   </si>
   <si>
     <t>[${system:site_name}]公開フォーム ${publicform:public_form_view_name} でエラーが発生しました</t>
-    <rPh sb="21" eb="23">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${user:user_name}様\n\n公開フォーム ${publicform:public_form_view_name} の入力中に、エラーが発生しました。\n入力された内容と、エラー内容をご確認ください。\n\n■入力内容\n${publicform:inputs}\n\n■エラー概要\n${error:message}\n\n■エラー詳細\n${error:stacktrace}\n\n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>publicform_complete_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開フォーム 完了通知(一般ユーザー)</t>
-    <rPh sb="0" eb="2">
-      <t>コウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[${system:site_name}]入力が完了しました</t>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この度は、ご入力いただきありがとうございます。\n入力が完了しました。入力内容をご確認ください。\n\n■入力内容\n${publicform:inputs}</t>
-    <rPh sb="2" eb="3">
-      <t>タビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="34">
-      <t>ニュウリョ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>ニュウリョクナイヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>publicform_complete_admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開フォーム 完了通知(管理者)</t>
-    <rPh sb="0" eb="2">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[${system:site_name}]公開フォーム ${publicform:public_form_view_name} で入力が行われました</t>
-    <rPh sb="65" eb="67">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${user:user_name}様\n\n公開フォーム ${publicform:public_form_view_name} の入力がありました。\n入力された内容をご確認ください。\n\n■入力内容\n${publicform:inputs}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>publicform_error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公開フォーム エラー通知(管理者)</t>
-    <rPh sb="0" eb="2">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sendmail_error</t>
+  </si>
+  <si>
+    <t>メール送信エラー</t>
+  </si>
+  <si>
+    <t>メール送信エラーが発生しました。</t>
+  </si>
+  <si>
+    <t>メール送信に失敗しました。メール設定と、システムログファイルをご確認ください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -531,9 +632,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -541,21 +884,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,7 +994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -637,26 +1027,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -689,23 +1062,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,26 +1203,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02B19E-36B6-49DD-989B-C96CC8D7F9C4}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="5" max="5" width="52.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -906,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -922,266 +1277,283 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:6">
+      <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>